--- a/biology/Médecine/Albrecht_Erlenmeyer/Albrecht_Erlenmeyer.xlsx
+++ b/biology/Médecine/Albrecht_Erlenmeyer/Albrecht_Erlenmeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albrecht Erlenmeyer est né en 1849 à Bendorf bei Koblenz[1], fils du psychiatre Adolph Albrecht Erlenmeyer (1822–1877). Il a étudié la médecine dans les universités de Bonn, Halle et Würzburg et Greifswald, obtenant son doctorat en 1872 à Greifswald avec une thèse intitulée "Uber das cicatricielle Neurom"[2].
-Il est mort en 1926, c'est un médecin et psychiatre autrichien exerçant à Vienne. En 1887, il décrit la cocaïne comme le troisième « fléau » mortel pour l'humanité, après l'alcool et l'opium. Il fait suite à un article de Sigmund Freud faisant l'éloge de cette substance comme remède à l'addiction à la morphine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albrecht Erlenmeyer est né en 1849 à Bendorf bei Koblenz, fils du psychiatre Adolph Albrecht Erlenmeyer (1822–1877). Il a étudié la médecine dans les universités de Bonn, Halle et Würzburg et Greifswald, obtenant son doctorat en 1872 à Greifswald avec une thèse intitulée "Uber das cicatricielle Neurom".
+Il est mort en 1926, c'est un médecin et psychiatre autrichien exerçant à Vienne. En 1887, il décrit la cocaïne comme le troisième « fléau » mortel pour l'humanité, après l'alcool et l'opium. Il fait suite à un article de Sigmund Freud faisant l'éloge de cette substance comme remède à l'addiction à la morphine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Ueber Cocainsucht, in Deutsche Medizinal-Zeitung, Jg. 7, Nr. 44, 31. Mai 1886, S. 483-484
 (de) Über die Wirkung des Cocaln bei der Morphiumentziehung, in Centralblatt für Nervenheilkunde, Psychiatrie und gerichtliche Psychopathologie, Jg. 8, Nr. 13,1. Juli 1885, S. 289-299.</t>
